--- a/PRODUTOS/Limpeza/Limpeza - Lava loucas.xlsx
+++ b/PRODUTOS/Limpeza/Limpeza - Lava loucas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Detergente Líquido Limpol Cristal 500ml</t>
+          <t>Limpa Aluminio Reax 500ml Tradicional</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79acb7ea-a371-48b7-94bc-8853ffd75c29.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a384672-044c-4548-9cfc-3b5afaa6dea0.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896495000198</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Detergente Liquido Odd 500ml Clear</t>
+          <t>Sabao Em Po Finish Power 1kg Advanced</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 74,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86516601-d887-4cac-b347-6782ab957455.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/946c11ac-1417-47ec-ad1d-8bb3b36ae18b.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891035024351</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lava-louças Liquido Clear Ypê 500ml</t>
+          <t>Esponja Rayum Colors 1un</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d203bc40-cd48-48b8-89b0-2e772a96411d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f7b08a5-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896021625901</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Detergente Liquido Ype 500ml Neutro</t>
+          <t>Limp Cif Cremoso Lp Prof 250ml Laranja</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eec8627e-a2e5-469c-8530-354d93c79e01.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9fba6ff-168c-431f-8e29-f25b44a43054.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891150034341</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Detergente Líquido Limpol Coco 500ml</t>
+          <t>Limp Cif Cremoso Lp Prof 250ml Limao</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b43a8d0e-d216-4928-b12c-6da977b1d2a5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7ea36c4-cf0e-4e6d-93cf-7a02940e0be9.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891150034341</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Detergente Líquido Limpol Neutro 500ml</t>
+          <t>Limpador Cif Multiuso Cremoso 250ml Original</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e2c21d7-6d62-4d29-99b6-e78ce87356d7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de35c9ae-3b70-4999-90ff-5ab78dca7bb1.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891150022010</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Detergente Liquido Odd 500ml Coco</t>
+          <t>Secante Abrilhantador Samy 100ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43a76d6b-8f4b-4435-8485-3b4133cec356.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7bd3f66-b37d-439d-b815-25a277cb9f4d.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896495000631</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Detergente Liquido Odd 500ml Neutro</t>
+          <t>Desengordurante Diabo Verde 500ml</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e03f312-0279-4001-91fc-ac531dd0c99d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08d9e469-93cc-4161-8e4e-ea7c1e8d557c.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896495000426</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Detergente Liquido Ype 500ml Clear Care</t>
+          <t>Limpa Aluminio Reax 500ml Maça</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fccc4095-26ff-456e-a3da-cfd08202096e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7edece2d-fda7-42a8-8547-4323bb37878b.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896495000198</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Detergente Liquido Ypê 500gr Capim/limao</t>
+          <t>Desentupidor Super Diabo Verde 1l</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94dc1ddf-8599-41e4-942c-c082343a0063.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/614fd60d-2d11-4512-a49d-d224b6bc14da.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896495000129</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Esponja Multiuso Limppano Leve 4 Pague 3 Unidades</t>
+          <t>Desentupidor Diabo Verde 300g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adab9e1e-1c23-42bc-9c9d-67f580d11a86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd110082-5b98-4891-887f-c941ddb849cb.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896495000129</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lava-louças Líquido Ypê Coco 500ml</t>
+          <t>Limpa Forno Diabo Verde 250 Gr</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb38734f-1399-4d1e-abd4-997932960e5a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32858360-09ad-41ed-af2e-fbd51efc67b8.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896495000051</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>La De Aco Assolan C/08 Un</t>
+          <t>Sapolio Radium 300g Lavanda</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 2,98</t>
+          <t>R$ 8,39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19e2b8b7-88b2-4775-abfc-125384852508.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3d5e4a3-957c-4a2c-a7e9-aef37545e856.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891022852691</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Detergente Liquido Odd 500ml Original</t>
+          <t>Esponja Antiaderente Limppano 3un</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/812712f7-f100-48d4-a370-4a7d35328c9e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e88227e-846f-4e91-9ccb-8cd70b56fcf6.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896021620470</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Detergente Liquido Ype 500ml Maça</t>
+          <t>Esponja Antiaderente Limppano Un</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb68ca4-19fa-472d-a055-482941c57e7b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f409d568-2133-4057-8a69-f59d7966fead.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896021620470</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Detergente Liquido Limpol 500ml Limao</t>
+          <t>Reax Lava Inox Cremoso 400g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf620164-100a-4fbf-95d1-25cd4709dbce.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4077edf-0983-4d21-b02f-1b0b71717079.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896495001256</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Detergente Liquido Ype 500ml Limao</t>
+          <t>Desengengordurante Veja Pulv Ex Lar 500ml</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1b43be5-ab7b-4727-8397-a237817a5519.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7356933b-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891035216107</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Detergente Liquido Limpol 500ml Maça</t>
+          <t>Saponaceo Agifacil Cremoso 300ml Limão</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd2521ea-16ee-4a7b-aa31-d02ad80e38c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11c0105f-d486-4d00-8fe2-071df7655f2e.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898005490178</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Esponja Multiuso Scotch-brite 1un</t>
+          <t>Saponaceo Agifacil Cremoso 300ml Tradicional</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b97593d-9436-4e9f-8da8-ca4595ea17e8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a5f15e7-173f-4753-a8ed-cf355fe424be.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898005490161</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Esponja Limp.pesada Limppano C03un</t>
+          <t>Detergente Ype 5l Clear</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a73f963-2b4c-44db-a422-d507a4ac9ec8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abd9f80d-73a3-4dc1-b219-963f6f434f86.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896098905258</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Esponja Scotch Brite Limpeza Pesada L4p3</t>
+          <t>Detergente Ype 5l Neutro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ab5596a-af07-4982-bec5-f3626507a0ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a4397ce-1b94-414a-aa34-db4f7c5948a3.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896098905203</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Esponja Antiaderente Limppano 3un</t>
+          <t>Sapolio Radium 250ml Limpa Inox</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e88227e-846f-4e91-9ccb-8cd70b56fcf6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4cbe3e9c-264b-48b8-9c9b-f7f6dd1ea66e.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891022861167</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Esponja De Limpeza Limppano 1un</t>
+          <t>Sapolio Radium 250ml Limpa Aluminio</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3725ca0-0da8-4cbf-a6af-25642c02f817.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2fd1ae2-2a2e-4db0-851e-c721467540c6.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891022861167</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Limpador Cif Multiuso Cremoso 250ml Original</t>
+          <t>Detergente Liquido Candura 5 Lt Neutro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de35c9ae-3b70-4999-90ff-5ab78dca7bb1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0eeac92a-3c99-4c15-a324-3495514d6ba0.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896105500711</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Esponja Scotch Brite Limp Extrema L4p3</t>
+          <t>Sapolio Radium Cremoso 250ml Lavanda</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b724cb09-3f81-42b9-9362-07e63f27500a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e194a91c-35da-4594-a881-100b79f98ca8.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891022861068</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sabao Em Pasta Urca 500g</t>
+          <t>Sapolio Radium Cremoso 250ml Limao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0f64d71-71c9-4caf-9090-ce3088555db0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a31daf0-9dab-4c9e-8edd-2cee5ceea78c.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891022861051</t>
         </is>
       </c>
     </row>
@@ -1176,6 +1311,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c87e2eec-14da-4488-adc9-9ce0864ab2c6.jpg</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7891022861075</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Limpador Cif Cremoso Limpeza Profunda 450ml Branco</t>
+          <t>Esponja Multiuso Limppano Rayum 1uni.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1533509f-d540-4419-86f6-b7c577ae36b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e936ab4-70f0-43cc-a4e7-edb34a2391c2.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896021623723</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lã De Aço Bombril C/6un</t>
+          <t>Sapolio Radium Barra 200gr</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,29</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d9bd368-c1cc-43d2-8b3c-564d0841ead6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a2e0801-a322-4723-a485-e4aba4c2ef7b.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7891022471007</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sabao Samy Em Po P/maquina 500g</t>
+          <t>Sapolio Radium 300g Limao</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 8,39</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b57eb231-0e23-4aa4-b132-c01934b9f6f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/116536e4-6235-4283-b5e7-830420b4d402.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7891022503005</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sapolio Radium Cremoso 250ml Lavanda</t>
+          <t>Detergente Líquido Limpol Cristal 500ml</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 2,79</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e194a91c-35da-4594-a881-100b79f98ca8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79acb7ea-a371-48b7-94bc-8853ffd75c29.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891022867510</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Limpador Cif Desengordurante Sachê 450ml</t>
+          <t>Sapolio Radium 300g Cloro</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 8,39</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/066b5f49-c663-4302-bf1f-0923cebf74e1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdcba66a-f6b9-46f6-924e-e1e35b904f72.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891022861075</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Samy Pastilhas Especiais 250g</t>
+          <t>Detergente Líquido Limpol Neutro 500ml</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 2,79</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27286620-cd37-4a3f-a2b2-c10b3d63a5d5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e2c21d7-6d62-4d29-99b6-e78ce87356d7.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7891022638004</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sapolio Radium Cremoso 250ml Limao</t>
+          <t>Sabao Em Pasta Dipol Neutro 500g</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a31daf0-9dab-4c9e-8edd-2cee5ceea78c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55fd56e1-5fc0-4b26-9f2c-79d4c76d66b2.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896056400047</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Esponja Antiaderente Limppano Un</t>
+          <t>Esponja Zapt Limpa Mais Limppano 02un</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f409d568-2133-4057-8a69-f59d7966fead.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7714ece-9984-44ef-b4f9-df26379e31dd.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896021623372</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Limp Cif Cremoso Lp Prof 250ml Limao</t>
+          <t>Samy Pastilhas Especiais 250g</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7ea36c4-cf0e-4e6d-93cf-7a02940e0be9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27286620-cd37-4a3f-a2b2-c10b3d63a5d5.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896495000266</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Secante Abrilhantador Samy 100ml</t>
+          <t>Esponja Sanitaria Scotch Brite</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7bd3f66-b37d-439d-b815-25a277cb9f4d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b80080f3-c8ab-4057-9a8f-a3dbeeec56bb.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7891040142712</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Detergente Ype 5l Clear</t>
+          <t>Esponja Salva-unhas Scotch-brite</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abd9f80d-73a3-4dc1-b219-963f6f434f86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a763925-defb-405e-8cc8-9eb1f17f8eb3.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7891040028931</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Esponja Salva-unhas Scotch-brite</t>
+          <t>Esponja Multiuso Limppano Leve 4 Pague 3 Unidades</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a763925-defb-405e-8cc8-9eb1f17f8eb3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adab9e1e-1c23-42bc-9c9d-67f580d11a86.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896021623723</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Detergente Ype 5l Neutro</t>
+          <t>Detergente Liquido Ype 500ml Maça</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 2,89</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a4397ce-1b94-414a-aa34-db4f7c5948a3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb68ca4-19fa-472d-a055-482941c57e7b.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896098900215</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sabao Pasta Assolan Brilho 500gr</t>
+          <t>Sapolio Radium Po Classico 300gr</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 8,39</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b872a665-a3f6-4eff-b40e-127d1086db8c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db037c5c-468a-45c3-ad3d-43f988fb69db.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891022852707</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sabao Em Pasta Dipol Neutro 500g</t>
+          <t>Limpa Aluminio Diabo Verde 500ml</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55fd56e1-5fc0-4b26-9f2c-79d4c76d66b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1e0bc40-f236-4425-9146-3676911800ee.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896495000426</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Limp Cif Cremoso Lp Prof 250ml Laranja</t>
+          <t>Sabao Em Pasta Urca 500g</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9fba6ff-168c-431f-8e29-f25b44a43054.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0f64d71-71c9-4caf-9090-ce3088555db0.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896056400047</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Desengordurante Diabo Verde 500ml</t>
+          <t>Pasta Cristal Rosa Limpeza 500g</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08d9e469-93cc-4161-8e4e-ea7c1e8d557c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8cfeeb2-aa7c-462c-be25-99c3f1fd1d65.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896060400262</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sapolio Radium 300g Cloro</t>
+          <t>Esponja Scotch Brite Limpeza Pesada L4p3</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 8,39</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdcba66a-f6b9-46f6-924e-e1e35b904f72.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ab5596a-af07-4982-bec5-f3626507a0ea.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7891040299614</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Esponja Multiuso Limppano Rayum 1uni.</t>
+          <t>Sabao De Coco Em Pasta Ufe 500g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e936ab4-70f0-43cc-a4e7-edb34a2391c2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea1e1d4c-9330-4c93-aa81-71f9bd79d948.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896060401559</t>
         </is>
       </c>
     </row>
@@ -1703,746 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Desentupidor Diabo Verde 300g</t>
+          <t>Desengordurante Veja Cozinha Limão Gat.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd110082-5b98-4891-887f-c941ddb849cb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Detergente Liquido Candura 5 Lt Neutro</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0eeac92a-3c99-4c15-a324-3495514d6ba0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Sapolio Radium 300g Limao</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>R$ 8,39</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/116536e4-6235-4283-b5e7-830420b4d402.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Sabao De Coco Em Pasta Ufe 500g</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea1e1d4c-9330-4c93-aa81-71f9bd79d948.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Sapolio Radium 250ml Limpa Inox</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4cbe3e9c-264b-48b8-9c9b-f7f6dd1ea66e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Limpador Desengordurante Cif Gatilho 500ml</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7dbd004f-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Detergente Liquido Odd 500ml Bicarbonato De Sodio</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>R$ 2,69</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a276b5d-6983-4bcd-abe3-d6d084be2ac4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Esponja Zapt Limpa Mais Limppano 02un</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7714ece-9984-44ef-b4f9-df26379e31dd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Saponaceo Agifacil Cremoso 300ml Tradicional</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a5f15e7-173f-4753-a8ed-cf355fe424be.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Saponaceo Agifacil Cremoso 300ml Limão</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11c0105f-d486-4d00-8fe2-071df7655f2e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Sapolio Radium 300g Lavanda</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>R$ 8,39</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3d5e4a3-957c-4a2c-a7e9-aef37545e856.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Desengordurante Veja Cozinha Limão Gat.</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1274ffb-0fbd-4c65-b90d-82fd753158b8.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Limpa Forno Diabo Verde 250 Gr</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32858360-09ad-41ed-af2e-fbd51efc67b8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Esponja Sanitaria Scotch Brite</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b80080f3-c8ab-4057-9a8f-a3dbeeec56bb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Esponja Multi-uso Maxxi Uni</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1e3db1a-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Limpa Aluminio Diabo Verde 500ml</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1e0bc40-f236-4425-9146-3676911800ee.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Limpa Aluminio Reax 500ml Tradicional</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a384672-044c-4548-9cfc-3b5afaa6dea0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Sapolio Radium 250ml Limpa Aluminio</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2fd1ae2-2a2e-4db0-851e-c721467540c6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Pasta Cristal Rosa Limpeza 500g</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8cfeeb2-aa7c-462c-be25-99c3f1fd1d65.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Sabao Em Po Finish Power 1kg Advanced</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>R$ 74,99</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/946c11ac-1417-47ec-ad1d-8bb3b36ae18b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Desentupidor Super Diabo Verde 1l</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/614fd60d-2d11-4512-a49d-d224b6bc14da.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Esponja Rayum Colors 1un</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f7b08a5-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Reax Lava Inox Cremoso 400g</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4077edf-0983-4d21-b02f-1b0b71717079.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Det Finish Power Ball 208g 13 Tabletes</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>R$ 48,99</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbaea82a-b103-46b4-ac17-24d2ac5cb24f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Limpa Aluminio Reax 500ml Maça</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7edece2d-fda7-42a8-8547-4323bb37878b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Sapolio Radium Barra 200gr</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>R$ 5,29</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a2e0801-a322-4723-a485-e4aba4c2ef7b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Desengengordurante Veja Pulv Ex Lar 500ml</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7356933b-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Lava loucas</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Esponja Salva Unhas Limppano 1un</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1195efd-1fe3-4e90-bcc2-f2926712c9b5.jpg</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7891035215506</t>
         </is>
       </c>
     </row>
